--- a/biology/Médecine/Anaphrodisie/Anaphrodisie.xlsx
+++ b/biology/Médecine/Anaphrodisie/Anaphrodisie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 anaphrodisie, sur le Wiktionnaire
 L'anaphrodisie est une forme de trouble sexuel se caractérisant par une absence de désir sexuel pendant une longue période. Ce trouble se manifeste par une indifférence totale au coït. 
-Dans l'anaphrodisie primaire, cette absence de désir existe depuis toujours. Dans l'anaphrodisie secondaire, elle apparaît après une période normale, où le désir existe[1].
+Dans l'anaphrodisie primaire, cette absence de désir existe depuis toujours. Dans l'anaphrodisie secondaire, elle apparaît après une période normale, où le désir existe.
 Une personne se plaignant d'anaphrodisie ne souffre pas forcément de frigidité ou d'anorgasmie. Seul le désir sexuel manque, il n'y a pas de désir spontané de l'acte sexuel ni de la masturbation. Par contre, lors des rapports sexuels ou lors de la masturbation, cette personne peut tout de même avoir du plaisir ou un orgasme.  
 Son origine est diverse : contexte familial, contexte éducatif, contexte pathologique voire traumatique.
 </t>
